--- a/3. Attributor and ShapeFileCombiner/ControlFile_AttributorCombiner.xlsx
+++ b/3. Attributor and ShapeFileCombiner/ControlFile_AttributorCombiner.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHussain\Dropbox (IRENA)\01 My work folder\2. MSR\20210105 zoning codes\2. MSR_OpenRepo\3. Attributor and ShapeFileCombiner\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619037B-9A68-41B9-AEFC-48A299CC7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-21720" yWindow="1485" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PathsAndNames" sheetId="10" r:id="rId1"/>
     <sheet name="configurations" sheetId="14" r:id="rId2"/>
     <sheet name="CostParameters" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,28 +36,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5911840A-5AF7-407C-B1A7-09281553BCD8}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     if csp annual CF is not to be calculated from hourly profiles
 Reply:
     for csp log equation parameters and technology name conventions etc.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -64,26 +56,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={78EAB35E-4C8C-483D-BF2E-8D0C987310BE}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Capital required for deploying two substations per transmission line. Assumed specifically for an asset capacity suitable to evacuate power from a typical utility scale power plant having a nameplate capacity in the range of 2.5 - 75 MW</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -234,13 +217,13 @@
     <t>C:\Users\BHussain\Dropbox (IRENA)\01 My work folder\2. MSR\20210105 zoning codes\2. MSR_OpenRepo\countrynames.csv</t>
   </si>
   <si>
-    <t>C:\Users\BHussain\Dropbox (IRENA)\01 My work folder\2. MSR\20210105 zoning codes\2. MSR_OpenRepo\2. Profile Generator\Control Inputs Profile Generator.xlsx</t>
+    <t>C:\Users\BHussain\Dropbox (IRENA)\01 My work folder\2. MSR\20210105 zoning codes\2. MSR_OpenRepo\2. Profile Generator\ControlFile_ProfileGenerator.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -621,15 +604,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A6" dT="2021-10-12T09:49:42.89" personId="{EDE8A905-5964-4A16-949B-9698484D856A}" id="{A4702935-D440-4C5F-88F3-8095D6190029}">
-    <text>Subfolders will be created in this folder each named exactly as per the country names provided to profile generator code</text>
-  </threadedComment>
-  <threadedComment ref="A7" dT="2021-10-21T10:56:45.12" personId="{EDE8A905-5964-4A16-949B-9698484D856A}" id="{07B35160-C31F-4E06-8C01-4181B2060601}">
-    <text>if csp annual CF is not to be calculated from hourly profiles</text>
-  </threadedComment>
-  <threadedComment ref="A7" dT="2021-10-21T15:40:07.61" personId="{EDE8A905-5964-4A16-949B-9698484D856A}" id="{A0312E6E-94F5-4678-AAF3-7C1C8CD53BD5}" parentId="{07B35160-C31F-4E06-8C01-4181B2060601}">
-    <text>for csp log equation parameters and technology name conventions etc.</text>
-  </threadedComment>
   <threadedComment ref="C7" dT="2021-10-21T10:56:45.12" personId="{EDE8A905-5964-4A16-949B-9698484D856A}" id="{5911840A-5AF7-407C-B1A7-09281553BCD8}">
     <text>if csp annual CF is not to be calculated from hourly profiles</text>
   </threadedComment>
@@ -648,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -821,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
